--- a/data/pca/factorExposure/factorExposure_2017-10-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02393781128647404</v>
+        <v>0.01407510943620953</v>
       </c>
       <c r="C2">
-        <v>0.003470275866735208</v>
+        <v>-0.03864234907655516</v>
       </c>
       <c r="D2">
-        <v>-0.01662099972034209</v>
+        <v>-0.0287253123099448</v>
       </c>
       <c r="E2">
-        <v>0.0144333499591081</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03037329272164144</v>
+      </c>
+      <c r="F2">
+        <v>0.01908777248752719</v>
+      </c>
+      <c r="G2">
+        <v>0.02468200377223367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01209136958515892</v>
+        <v>0.05174434572049789</v>
       </c>
       <c r="C3">
-        <v>0.04888267406768178</v>
+        <v>-0.07450438101556407</v>
       </c>
       <c r="D3">
-        <v>-0.01557694102201032</v>
+        <v>-0.01432919010072831</v>
       </c>
       <c r="E3">
-        <v>0.009867031096597414</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08906763378473155</v>
+      </c>
+      <c r="F3">
+        <v>0.06066046495585953</v>
+      </c>
+      <c r="G3">
+        <v>0.0753393834618882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02189045763014807</v>
+        <v>0.05719285465530911</v>
       </c>
       <c r="C4">
-        <v>0.01850598981819697</v>
+        <v>-0.06228561327948434</v>
       </c>
       <c r="D4">
-        <v>-0.06335452511428118</v>
+        <v>-0.02270465557068302</v>
       </c>
       <c r="E4">
-        <v>-0.01272101622526702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01323306644411399</v>
+      </c>
+      <c r="F4">
+        <v>0.00688899358868005</v>
+      </c>
+      <c r="G4">
+        <v>0.0492616237250796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01516533990381969</v>
+        <v>0.03348718144434399</v>
       </c>
       <c r="C6">
-        <v>0.0250995057114896</v>
+        <v>-0.05248524195789522</v>
       </c>
       <c r="D6">
-        <v>-0.08353671447750831</v>
+        <v>-0.01603736367816482</v>
       </c>
       <c r="E6">
-        <v>0.001301874340186788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01044986391487095</v>
+      </c>
+      <c r="F6">
+        <v>0.008030286995517512</v>
+      </c>
+      <c r="G6">
+        <v>0.02872673360624044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01025713605836827</v>
+        <v>0.02070013520326371</v>
       </c>
       <c r="C7">
-        <v>0.005627299799282919</v>
+        <v>-0.03640183425992506</v>
       </c>
       <c r="D7">
-        <v>-0.03989444871790969</v>
+        <v>-0.01269182961640596</v>
       </c>
       <c r="E7">
-        <v>-0.06826894026551075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.011626576869727</v>
+      </c>
+      <c r="F7">
+        <v>0.003599455517431112</v>
+      </c>
+      <c r="G7">
+        <v>0.07976722898432516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001310983384320866</v>
+        <v>0.0008884860307350253</v>
       </c>
       <c r="C8">
-        <v>-0.008692700048346541</v>
+        <v>-0.01408209549684318</v>
       </c>
       <c r="D8">
-        <v>-0.01681755692371673</v>
+        <v>-0.003501879091532604</v>
       </c>
       <c r="E8">
-        <v>-0.004940624894375028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01074649667136151</v>
+      </c>
+      <c r="F8">
+        <v>0.01976460082199279</v>
+      </c>
+      <c r="G8">
+        <v>0.02305693137076378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0145356413375122</v>
+        <v>0.02960362312431543</v>
       </c>
       <c r="C9">
-        <v>0.01847932332242249</v>
+        <v>-0.04318192803219813</v>
       </c>
       <c r="D9">
-        <v>-0.04552166344401994</v>
+        <v>-0.01599024328991466</v>
       </c>
       <c r="E9">
-        <v>-0.002660836573702008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01449962972367235</v>
+      </c>
+      <c r="F9">
+        <v>0.0136124452409394</v>
+      </c>
+      <c r="G9">
+        <v>0.03994638923065386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.009886242863184291</v>
+        <v>0.0906084566318161</v>
       </c>
       <c r="C10">
-        <v>0.144223128911868</v>
+        <v>0.1853387713233519</v>
       </c>
       <c r="D10">
-        <v>0.1354595309398196</v>
+        <v>0.0190602631488804</v>
       </c>
       <c r="E10">
-        <v>-0.01966575545746191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01522786892785515</v>
+      </c>
+      <c r="F10">
+        <v>-0.01455280990599021</v>
+      </c>
+      <c r="G10">
+        <v>0.03985740751327025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0002847122644344464</v>
+        <v>0.03424551965004286</v>
       </c>
       <c r="C11">
-        <v>0.008003665957881727</v>
+        <v>-0.05340284802244152</v>
       </c>
       <c r="D11">
-        <v>-0.04510841452928666</v>
+        <v>-0.001905638342205439</v>
       </c>
       <c r="E11">
-        <v>0.01280568342590771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.003782714386930671</v>
+      </c>
+      <c r="F11">
+        <v>0.01959507279976652</v>
+      </c>
+      <c r="G11">
+        <v>0.02210934245943582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005482132318843378</v>
+        <v>0.0328001715135619</v>
       </c>
       <c r="C12">
-        <v>0.0157114250729513</v>
+        <v>-0.04454962376626605</v>
       </c>
       <c r="D12">
-        <v>-0.047496494987287</v>
+        <v>-0.005829372992869418</v>
       </c>
       <c r="E12">
-        <v>0.003774542645742388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.0038223737064473</v>
+      </c>
+      <c r="F12">
+        <v>0.004936814151290853</v>
+      </c>
+      <c r="G12">
+        <v>0.02648037557620164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02155934977918732</v>
+        <v>0.01477801013017295</v>
       </c>
       <c r="C13">
-        <v>0.01673739046235042</v>
+        <v>-0.03235611225357396</v>
       </c>
       <c r="D13">
-        <v>-0.01174004252909889</v>
+        <v>-0.02484359484107162</v>
       </c>
       <c r="E13">
-        <v>0.009307775240842784</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02342688541249518</v>
+      </c>
+      <c r="F13">
+        <v>0.01270372872078416</v>
+      </c>
+      <c r="G13">
+        <v>0.0336083837208899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007017192940983738</v>
+        <v>0.009953428140853931</v>
       </c>
       <c r="C14">
-        <v>0.01230799449197406</v>
+        <v>-0.02674614191622934</v>
       </c>
       <c r="D14">
-        <v>-0.01812363511616462</v>
+        <v>-0.008516871164921969</v>
       </c>
       <c r="E14">
-        <v>-0.009282512890507079</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.005138684663721698</v>
+      </c>
+      <c r="F14">
+        <v>-0.001407185569933087</v>
+      </c>
+      <c r="G14">
+        <v>0.04006702586309634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0006805103935154695</v>
+        <v>0.0322323000476305</v>
       </c>
       <c r="C16">
-        <v>0.01282063743032294</v>
+        <v>-0.04320337345238184</v>
       </c>
       <c r="D16">
-        <v>-0.05170711814301675</v>
+        <v>-0.001398146404114234</v>
       </c>
       <c r="E16">
-        <v>0.007149689561644803</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.005483697876408525</v>
+      </c>
+      <c r="F16">
+        <v>0.009584981676676273</v>
+      </c>
+      <c r="G16">
+        <v>0.024457199088442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01321390609789634</v>
+        <v>0.02854888008719086</v>
       </c>
       <c r="C19">
-        <v>0.02885147929175359</v>
+        <v>-0.04929765019077928</v>
       </c>
       <c r="D19">
-        <v>-0.02791624176088873</v>
+        <v>-0.01581445668244656</v>
       </c>
       <c r="E19">
-        <v>-0.003128605675078663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05117019874550771</v>
+      </c>
+      <c r="F19">
+        <v>0.0300715211011767</v>
+      </c>
+      <c r="G19">
+        <v>0.04784855745193677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01034703767339055</v>
+        <v>0.01291977380610322</v>
       </c>
       <c r="C20">
-        <v>0.005813058224736164</v>
+        <v>-0.03486683599432795</v>
       </c>
       <c r="D20">
-        <v>-0.01480720013063757</v>
+        <v>-0.01313265746630747</v>
       </c>
       <c r="E20">
-        <v>0.002548118388331463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02367173198549386</v>
+      </c>
+      <c r="F20">
+        <v>-0.002230592602943085</v>
+      </c>
+      <c r="G20">
+        <v>0.03845539495774508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0138643487671572</v>
+        <v>0.01684317674113144</v>
       </c>
       <c r="C21">
-        <v>0.03796647869693299</v>
+        <v>-0.0350164611861954</v>
       </c>
       <c r="D21">
-        <v>-0.01834290279213458</v>
+        <v>-0.01610044297631814</v>
       </c>
       <c r="E21">
-        <v>-0.0179970058198646</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0324568493694166</v>
+      </c>
+      <c r="F21">
+        <v>0.008922963673939287</v>
+      </c>
+      <c r="G21">
+        <v>0.06023426374731682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004910642655407028</v>
+        <v>0.02687806560525768</v>
       </c>
       <c r="C24">
-        <v>0.008654712584351286</v>
+        <v>-0.04595966669825626</v>
       </c>
       <c r="D24">
-        <v>-0.0455959473431726</v>
+        <v>-0.0066876597984536</v>
       </c>
       <c r="E24">
-        <v>0.007626381360038869</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.001432205163425258</v>
+      </c>
+      <c r="F24">
+        <v>0.01596354663358319</v>
+      </c>
+      <c r="G24">
+        <v>0.02601142254401388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0111169327355514</v>
+        <v>0.04356596816548762</v>
       </c>
       <c r="C25">
-        <v>0.02476355132136366</v>
+        <v>-0.0530911806244048</v>
       </c>
       <c r="D25">
-        <v>-0.04386024695935736</v>
+        <v>-0.01058909294662524</v>
       </c>
       <c r="E25">
-        <v>0.006361953257544334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.006364474246494124</v>
+      </c>
+      <c r="F25">
+        <v>0.01066956127599774</v>
+      </c>
+      <c r="G25">
+        <v>0.03181310096294424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02262642749668997</v>
+        <v>0.01152173745909816</v>
       </c>
       <c r="C26">
-        <v>0.007204893449753795</v>
+        <v>-0.008931185328969088</v>
       </c>
       <c r="D26">
-        <v>0.003498859919989625</v>
+        <v>-0.02368933506169013</v>
       </c>
       <c r="E26">
-        <v>-0.007472364457054628</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.008586865571837814</v>
+      </c>
+      <c r="F26">
+        <v>0.00129027648790046</v>
+      </c>
+      <c r="G26">
+        <v>0.03116160073764885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02781730321548002</v>
+        <v>0.1154432093067123</v>
       </c>
       <c r="C28">
-        <v>0.2157335282036279</v>
+        <v>0.226454748927227</v>
       </c>
       <c r="D28">
-        <v>0.1919849492555383</v>
+        <v>0.01013396068760146</v>
       </c>
       <c r="E28">
-        <v>-0.03148563600974093</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.001977945610206326</v>
+      </c>
+      <c r="F28">
+        <v>-0.01477018202098444</v>
+      </c>
+      <c r="G28">
+        <v>0.05875722916598303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.00730807116310654</v>
+        <v>0.01489798400513853</v>
       </c>
       <c r="C29">
-        <v>0.01766460190660649</v>
+        <v>-0.02081997291000565</v>
       </c>
       <c r="D29">
-        <v>-0.0145918528639823</v>
+        <v>-0.007175098640694262</v>
       </c>
       <c r="E29">
-        <v>-0.005065427970692796</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.006083644114485616</v>
+      </c>
+      <c r="F29">
+        <v>-0.01193593149230023</v>
+      </c>
+      <c r="G29">
+        <v>0.03011317026437192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02321463964277312</v>
+        <v>0.04639393382497916</v>
       </c>
       <c r="C30">
-        <v>0.004330642263078112</v>
+        <v>-0.06832554682317052</v>
       </c>
       <c r="D30">
-        <v>-0.06494690579214178</v>
+        <v>-0.02729559529890352</v>
       </c>
       <c r="E30">
-        <v>0.06218105051380746</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03940819796385115</v>
+      </c>
+      <c r="F30">
+        <v>0.04455305042563785</v>
+      </c>
+      <c r="G30">
+        <v>0.006641326585774894</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.007192318674673451</v>
+        <v>0.04532043672241617</v>
       </c>
       <c r="C31">
-        <v>0.04805543575555574</v>
+        <v>-0.03162073767508087</v>
       </c>
       <c r="D31">
-        <v>-0.04092965774386684</v>
+        <v>-0.003317909175702082</v>
       </c>
       <c r="E31">
-        <v>-0.002383625576847263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.007983923414111256</v>
+      </c>
+      <c r="F31">
+        <v>-0.03672126843331567</v>
+      </c>
+      <c r="G31">
+        <v>0.02748136518653901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007036142382267884</v>
+        <v>0.003196086652957534</v>
       </c>
       <c r="C32">
-        <v>0.01437412304548778</v>
+        <v>-0.03641738285986745</v>
       </c>
       <c r="D32">
-        <v>-0.009243925460672283</v>
+        <v>0.004024915552345774</v>
       </c>
       <c r="E32">
-        <v>-0.02528058116352994</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.0133059109033927</v>
+      </c>
+      <c r="F32">
+        <v>0.05332803397661381</v>
+      </c>
+      <c r="G32">
+        <v>0.05601222356005472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01223240788438476</v>
+        <v>0.0277103329475997</v>
       </c>
       <c r="C33">
-        <v>0.02476884004748774</v>
+        <v>-0.04902958904724881</v>
       </c>
       <c r="D33">
-        <v>-0.02378420543294486</v>
+        <v>-0.01440390658291336</v>
       </c>
       <c r="E33">
-        <v>0.02623410295672152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02363112771581899</v>
+      </c>
+      <c r="F33">
+        <v>0.02611791520631484</v>
+      </c>
+      <c r="G33">
+        <v>0.03461754094347658</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004798328252276591</v>
+        <v>0.0441630471340157</v>
       </c>
       <c r="C34">
-        <v>0.02135250489730548</v>
+        <v>-0.05433110120987827</v>
       </c>
       <c r="D34">
-        <v>-0.04985761686700303</v>
+        <v>0.005272211324794343</v>
       </c>
       <c r="E34">
-        <v>-0.001146845279779038</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.007641631294404869</v>
+      </c>
+      <c r="F34">
+        <v>0.0207866068244189</v>
+      </c>
+      <c r="G34">
+        <v>0.03781842324266378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01169274980807158</v>
+        <v>0.01182966291198815</v>
       </c>
       <c r="C36">
-        <v>0.01740214365348974</v>
+        <v>-0.007210821751874617</v>
       </c>
       <c r="D36">
-        <v>-0.002148822198972981</v>
+        <v>-0.0113502336991437</v>
       </c>
       <c r="E36">
-        <v>-0.001936770311324669</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.003621670807867473</v>
+      </c>
+      <c r="F36">
+        <v>-0.00357655348805589</v>
+      </c>
+      <c r="G36">
+        <v>0.02483306912634664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006364127402899982</v>
+        <v>0.03219601844035284</v>
       </c>
       <c r="C38">
-        <v>0.02661187881391778</v>
+        <v>-0.02561084574865541</v>
       </c>
       <c r="D38">
-        <v>-0.02359233366656677</v>
+        <v>0.007824220249435472</v>
       </c>
       <c r="E38">
-        <v>-0.0006632914835613137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003460489292477002</v>
+      </c>
+      <c r="F38">
+        <v>-0.003751672508953751</v>
+      </c>
+      <c r="G38">
+        <v>0.0334273863563157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.006033899494727879</v>
+        <v>0.0332897811755609</v>
       </c>
       <c r="C39">
-        <v>-0.01382551175477097</v>
+        <v>-0.08032177170750211</v>
       </c>
       <c r="D39">
-        <v>-0.09739220945999925</v>
+        <v>-0.01215804291245027</v>
       </c>
       <c r="E39">
-        <v>0.01664997958954095</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02520761189931291</v>
+      </c>
+      <c r="F39">
+        <v>0.0374451519209039</v>
+      </c>
+      <c r="G39">
+        <v>0.02763234562812211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01064288208484592</v>
+        <v>0.02261572565902229</v>
       </c>
       <c r="C40">
-        <v>0.01831981828457283</v>
+        <v>-0.030478092938716</v>
       </c>
       <c r="D40">
-        <v>-0.03929269436908754</v>
+        <v>-0.01286222145182187</v>
       </c>
       <c r="E40">
-        <v>0.01109750988657606</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01887848707295152</v>
+      </c>
+      <c r="F40">
+        <v>0.01840545972628786</v>
+      </c>
+      <c r="G40">
+        <v>0.02470720410376871</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005114952533622628</v>
+        <v>0.0131314298411801</v>
       </c>
       <c r="C41">
-        <v>0.02043281112007043</v>
+        <v>0.001279219916690835</v>
       </c>
       <c r="D41">
-        <v>0.007258399544587216</v>
+        <v>-0.003434864516668916</v>
       </c>
       <c r="E41">
-        <v>-0.002877496906987931</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.001304052339307607</v>
+      </c>
+      <c r="F41">
+        <v>-0.002197040510094761</v>
+      </c>
+      <c r="G41">
+        <v>0.01660948104925425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09472570885357234</v>
+        <v>0.02026866929118023</v>
       </c>
       <c r="C42">
-        <v>0.04231847152076915</v>
+        <v>-0.04640417867509414</v>
       </c>
       <c r="D42">
-        <v>-0.2262999312585683</v>
+        <v>-0.0967908552771136</v>
       </c>
       <c r="E42">
-        <v>0.2899794348173582</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04267455191263632</v>
+      </c>
+      <c r="F42">
+        <v>-0.04787916035066479</v>
+      </c>
+      <c r="G42">
+        <v>-0.1755981980011644</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005936513879903729</v>
+        <v>0.02876808353425815</v>
       </c>
       <c r="C43">
-        <v>0.02038160415749452</v>
+        <v>-0.008400478227691964</v>
       </c>
       <c r="D43">
-        <v>0.01330936602990542</v>
+        <v>-0.003751941800760686</v>
       </c>
       <c r="E43">
-        <v>0.0006952769332997521</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.005754670058258865</v>
+      </c>
+      <c r="F43">
+        <v>-0.0034806402334549</v>
+      </c>
+      <c r="G43">
+        <v>0.02249099857994327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002781519286388854</v>
+        <v>0.01735676435819988</v>
       </c>
       <c r="C44">
-        <v>-0.001588746212394537</v>
+        <v>-0.04851683489699066</v>
       </c>
       <c r="D44">
-        <v>-0.03066249974799041</v>
+        <v>-0.006287906388442384</v>
       </c>
       <c r="E44">
-        <v>-0.001941751621063671</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01581166263061042</v>
+      </c>
+      <c r="F44">
+        <v>0.01135762025522885</v>
+      </c>
+      <c r="G44">
+        <v>0.03982899144917245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01054857852026208</v>
+        <v>0.006940437752556042</v>
       </c>
       <c r="C46">
-        <v>0.01683424570336979</v>
+        <v>-0.01728100497919565</v>
       </c>
       <c r="D46">
-        <v>-0.01798134504696616</v>
+        <v>-0.01161974034470679</v>
       </c>
       <c r="E46">
-        <v>0.003450118803770497</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0002217789849060203</v>
+      </c>
+      <c r="F46">
+        <v>-0.01460806499666201</v>
+      </c>
+      <c r="G46">
+        <v>0.02728172695999721</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0009583393177835262</v>
+        <v>0.07387949998814651</v>
       </c>
       <c r="C47">
-        <v>0.06191941866039355</v>
+        <v>-0.06467131325737649</v>
       </c>
       <c r="D47">
-        <v>-0.0472097647993625</v>
+        <v>0.005047060129496834</v>
       </c>
       <c r="E47">
-        <v>0.00637994809946345</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01476975986916493</v>
+      </c>
+      <c r="F47">
+        <v>-0.05570629865251667</v>
+      </c>
+      <c r="G47">
+        <v>0.02557408356026575</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.00250637592177837</v>
+        <v>0.02218437609955753</v>
       </c>
       <c r="C48">
-        <v>0.02749117445434414</v>
+        <v>-0.009139345727505846</v>
       </c>
       <c r="D48">
-        <v>-0.01099868206460405</v>
+        <v>-0.0006082016230943469</v>
       </c>
       <c r="E48">
-        <v>0.0002419373005667927</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.0005942783705866885</v>
+      </c>
+      <c r="F48">
+        <v>-0.01530285562148585</v>
+      </c>
+      <c r="G48">
+        <v>0.03000963106213274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.002165165279725199</v>
+        <v>0.0801206435569974</v>
       </c>
       <c r="C50">
-        <v>0.0515722180355788</v>
+        <v>-0.06614460691395369</v>
       </c>
       <c r="D50">
-        <v>-0.0620366988916919</v>
+        <v>0.003818855826189289</v>
       </c>
       <c r="E50">
-        <v>-0.01871812030842898</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01109616005622045</v>
+      </c>
+      <c r="F50">
+        <v>-0.05746454720008761</v>
+      </c>
+      <c r="G50">
+        <v>0.0480010880804247</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007057553464771093</v>
+        <v>0.01214149591633521</v>
       </c>
       <c r="C51">
-        <v>0.02075130277653786</v>
+        <v>-0.02761493951347774</v>
       </c>
       <c r="D51">
-        <v>0.01271353927706471</v>
+        <v>-0.008988716530399917</v>
       </c>
       <c r="E51">
-        <v>-0.009082542964626824</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01097007729582212</v>
+      </c>
+      <c r="F51">
+        <v>0.02562790800148341</v>
+      </c>
+      <c r="G51">
+        <v>0.05328201929045981</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003790652093245867</v>
+        <v>0.09303829886911945</v>
       </c>
       <c r="C53">
-        <v>0.0833299721049629</v>
+        <v>-0.08080170905402391</v>
       </c>
       <c r="D53">
-        <v>-0.1017195302727257</v>
+        <v>0.005251622780369595</v>
       </c>
       <c r="E53">
-        <v>0.003165928709293948</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04133024093042651</v>
+      </c>
+      <c r="F53">
+        <v>-0.063958294584937</v>
+      </c>
+      <c r="G53">
+        <v>0.02601481072145987</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001355532124842487</v>
+        <v>0.03041924560968708</v>
       </c>
       <c r="C54">
-        <v>0.03365726956183301</v>
+        <v>-0.007740139860490926</v>
       </c>
       <c r="D54">
-        <v>0.01008105311662547</v>
+        <v>0.003358925663212029</v>
       </c>
       <c r="E54">
-        <v>-0.0115638064672293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.004645671727050432</v>
+      </c>
+      <c r="F54">
+        <v>-0.003332427883993909</v>
+      </c>
+      <c r="G54">
+        <v>0.03532206764003428</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.001291254698281942</v>
+        <v>0.07223786266038108</v>
       </c>
       <c r="C55">
-        <v>0.05929381495652748</v>
+        <v>-0.07367365229367336</v>
       </c>
       <c r="D55">
-        <v>-0.0875658216883772</v>
+        <v>0.004425197595964249</v>
       </c>
       <c r="E55">
-        <v>0.01445345862574041</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02921448786362384</v>
+      </c>
+      <c r="F55">
+        <v>-0.05794107697952273</v>
+      </c>
+      <c r="G55">
+        <v>0.0111282411589837</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0004319209067044578</v>
+        <v>0.142856369447457</v>
       </c>
       <c r="C56">
-        <v>0.1051087788697874</v>
+        <v>-0.1043824496474279</v>
       </c>
       <c r="D56">
-        <v>-0.1295981230329395</v>
+        <v>0.01358563555282746</v>
       </c>
       <c r="E56">
-        <v>0.01484702640484033</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04285737727195783</v>
+      </c>
+      <c r="F56">
+        <v>-0.09337817631932804</v>
+      </c>
+      <c r="G56">
+        <v>-0.001290415250309148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02302215857290533</v>
+        <v>0.01142014465817583</v>
       </c>
       <c r="C57">
-        <v>0.02071209193565414</v>
+        <v>-0.01066002454764755</v>
       </c>
       <c r="D57">
-        <v>-0.03894647794977403</v>
+        <v>-0.02362409559670645</v>
       </c>
       <c r="E57">
-        <v>0.0127924076376942</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02808949968935833</v>
+      </c>
+      <c r="F57">
+        <v>0.01622821128599615</v>
+      </c>
+      <c r="G57">
+        <v>0.01984256564388489</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.009845917162648416</v>
+        <v>0.08127579232339821</v>
       </c>
       <c r="C58">
-        <v>0.09321523476340493</v>
+        <v>-0.05223024262875538</v>
       </c>
       <c r="D58">
-        <v>-0.1008427065516578</v>
+        <v>-0.01853290546657179</v>
       </c>
       <c r="E58">
-        <v>0.2155044123461203</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9474356356723026</v>
+      </c>
+      <c r="F58">
+        <v>-0.2178697375614566</v>
+      </c>
+      <c r="G58">
+        <v>0.009043021694155438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02407209903016012</v>
+        <v>0.1527034393444446</v>
       </c>
       <c r="C59">
-        <v>0.2242550301299093</v>
+        <v>0.2117611447046601</v>
       </c>
       <c r="D59">
-        <v>0.1920987322322329</v>
+        <v>0.01664765029915656</v>
       </c>
       <c r="E59">
-        <v>-0.006601126528462281</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01309967902736552</v>
+      </c>
+      <c r="F59">
+        <v>0.006581588056932692</v>
+      </c>
+      <c r="G59">
+        <v>0.02058225437400694</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03005707874666463</v>
+        <v>0.2914755347657704</v>
       </c>
       <c r="C60">
-        <v>0.1662023372001447</v>
+        <v>-0.08837740949640407</v>
       </c>
       <c r="D60">
-        <v>-0.07345867814569786</v>
+        <v>-0.00823969356513418</v>
       </c>
       <c r="E60">
-        <v>0.04818172860805185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.003204542356869535</v>
+      </c>
+      <c r="F60">
+        <v>0.3717055442446895</v>
+      </c>
+      <c r="G60">
+        <v>-0.08266288998501876</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.00287764260168064</v>
+        <v>0.03403249592073889</v>
       </c>
       <c r="C61">
-        <v>0.010274521650121</v>
+        <v>-0.06382118858896323</v>
       </c>
       <c r="D61">
-        <v>-0.06706975848857445</v>
+        <v>-0.005317264602876099</v>
       </c>
       <c r="E61">
-        <v>0.009695041785997885</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01109335770926422</v>
+      </c>
+      <c r="F61">
+        <v>0.02001246589921702</v>
+      </c>
+      <c r="G61">
+        <v>0.02606834814573024</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007217879925668337</v>
+        <v>0.01151121448396913</v>
       </c>
       <c r="C63">
-        <v>0.007162215416969775</v>
+        <v>-0.0291911210026141</v>
       </c>
       <c r="D63">
-        <v>-0.008908467877890213</v>
+        <v>-0.008220222862644604</v>
       </c>
       <c r="E63">
-        <v>-0.006907236855892287</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.005593269694912608</v>
+      </c>
+      <c r="F63">
+        <v>-0.01799172579300962</v>
+      </c>
+      <c r="G63">
+        <v>0.03605956511771961</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.00679467409070107</v>
+        <v>0.05024525563081685</v>
       </c>
       <c r="C64">
-        <v>0.03553048629200049</v>
+        <v>-0.03856922290110766</v>
       </c>
       <c r="D64">
-        <v>-0.06343482434697778</v>
+        <v>-0.004922928428806092</v>
       </c>
       <c r="E64">
-        <v>0.01196144941737272</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.005715232072626072</v>
+      </c>
+      <c r="F64">
+        <v>0.00443870917409211</v>
+      </c>
+      <c r="G64">
+        <v>0.02334936126010225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01756291511494123</v>
+        <v>0.08509896366578651</v>
       </c>
       <c r="C65">
-        <v>0.03117285564551253</v>
+        <v>-0.06302080638100462</v>
       </c>
       <c r="D65">
-        <v>-0.09342825403122269</v>
+        <v>-0.01474859105570732</v>
       </c>
       <c r="E65">
-        <v>0.003998986030791921</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01030860964907279</v>
+      </c>
+      <c r="F65">
+        <v>0.02858309367291646</v>
+      </c>
+      <c r="G65">
+        <v>0.01184519465320477</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005485988783144657</v>
+        <v>0.05449985597439708</v>
       </c>
       <c r="C66">
-        <v>-0.00273349598096344</v>
+        <v>-0.1136099163212141</v>
       </c>
       <c r="D66">
-        <v>-0.1188349257921597</v>
+        <v>-0.01164882827264362</v>
       </c>
       <c r="E66">
-        <v>0.03255492883455686</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02677547263973851</v>
+      </c>
+      <c r="F66">
+        <v>0.04560929032717278</v>
+      </c>
+      <c r="G66">
+        <v>0.01956156509872077</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001452914546321687</v>
+        <v>0.05474549232778522</v>
       </c>
       <c r="C67">
-        <v>0.04446440985824535</v>
+        <v>-0.03014649390710207</v>
       </c>
       <c r="D67">
-        <v>-0.0259077265313342</v>
+        <v>0.006168330045846834</v>
       </c>
       <c r="E67">
-        <v>0.001175744758910136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.005580814431883463</v>
+      </c>
+      <c r="F67">
+        <v>-0.004244140600677387</v>
+      </c>
+      <c r="G67">
+        <v>0.03140841569856367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04154449550633021</v>
+        <v>0.1346971916780432</v>
       </c>
       <c r="C68">
-        <v>0.1934905556945044</v>
+        <v>0.2685528969780739</v>
       </c>
       <c r="D68">
-        <v>0.1840482969083296</v>
+        <v>-0.001224028251638274</v>
       </c>
       <c r="E68">
-        <v>-0.003283890681629005</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.009730009293100365</v>
+      </c>
+      <c r="F68">
+        <v>-0.03823865897016644</v>
+      </c>
+      <c r="G68">
+        <v>0.02065014570798753</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003389207756326763</v>
+        <v>0.07772002280290399</v>
       </c>
       <c r="C69">
-        <v>0.04684974291933879</v>
+        <v>-0.06522582827921647</v>
       </c>
       <c r="D69">
-        <v>-0.05356262161878748</v>
+        <v>0.00906319880383691</v>
       </c>
       <c r="E69">
-        <v>0.001466922233041194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0307137050274813</v>
+      </c>
+      <c r="F69">
+        <v>-0.04195313353244307</v>
+      </c>
+      <c r="G69">
+        <v>0.02647548937368925</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02912820671888944</v>
+        <v>0.1337997943012537</v>
       </c>
       <c r="C71">
-        <v>0.1720171814688152</v>
+        <v>0.2310932005081639</v>
       </c>
       <c r="D71">
-        <v>0.1632654942409566</v>
+        <v>0.00803870088911848</v>
       </c>
       <c r="E71">
-        <v>-0.01508040780365127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02547344453330861</v>
+      </c>
+      <c r="F71">
+        <v>-0.01471864653103682</v>
+      </c>
+      <c r="G71">
+        <v>0.03121652347943931</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002645660021735565</v>
+        <v>0.08322731679688644</v>
       </c>
       <c r="C72">
-        <v>0.05368644726695933</v>
+        <v>-0.07264750896355403</v>
       </c>
       <c r="D72">
-        <v>-0.1364517408957707</v>
+        <v>0.008735107725280501</v>
       </c>
       <c r="E72">
-        <v>0.03431581550289146</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01090237945126416</v>
+      </c>
+      <c r="F72">
+        <v>0.03936969870545858</v>
+      </c>
+      <c r="G72">
+        <v>0.007912384956407689</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04438057495736943</v>
+        <v>0.3981389442028319</v>
       </c>
       <c r="C73">
-        <v>0.2042832586990042</v>
+        <v>-0.09755463570663499</v>
       </c>
       <c r="D73">
-        <v>-0.1397324744691884</v>
+        <v>-0.01336991750608516</v>
       </c>
       <c r="E73">
-        <v>0.1154300431432005</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.05413911863022815</v>
+      </c>
+      <c r="F73">
+        <v>0.5452457238815078</v>
+      </c>
+      <c r="G73">
+        <v>-0.1330988437003003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001037593294141914</v>
+        <v>0.1176903928555365</v>
       </c>
       <c r="C74">
-        <v>0.09801236784193317</v>
+        <v>-0.1178431099133822</v>
       </c>
       <c r="D74">
-        <v>-0.1283606613398509</v>
+        <v>0.01023466441076948</v>
       </c>
       <c r="E74">
-        <v>0.0225908461390991</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.02667084758713486</v>
+      </c>
+      <c r="F74">
+        <v>-0.08198781104023303</v>
+      </c>
+      <c r="G74">
+        <v>0.03132923021735125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.001089435275228068</v>
+        <v>0.2579380439026869</v>
       </c>
       <c r="C75">
-        <v>0.2318542135624281</v>
+        <v>-0.1532226892042404</v>
       </c>
       <c r="D75">
-        <v>-0.2196237554518632</v>
+        <v>0.03113907421370202</v>
       </c>
       <c r="E75">
-        <v>0.04717275236284151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07198044451600775</v>
+      </c>
+      <c r="F75">
+        <v>-0.2049645171474612</v>
+      </c>
+      <c r="G75">
+        <v>-0.04212327840528703</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.005297832406609702</v>
+        <v>0.1353189833042083</v>
       </c>
       <c r="C76">
-        <v>0.1683342500108045</v>
+        <v>-0.1257519890087299</v>
       </c>
       <c r="D76">
-        <v>-0.2073017178273684</v>
+        <v>0.02124573058083575</v>
       </c>
       <c r="E76">
-        <v>0.01115219016768271</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.06588244739041148</v>
+      </c>
+      <c r="F76">
+        <v>-0.1353016844601874</v>
+      </c>
+      <c r="G76">
+        <v>0.01191248391867385</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01210809911809213</v>
+        <v>0.06406666633414529</v>
       </c>
       <c r="C77">
-        <v>0.01671143246237462</v>
+        <v>-0.06404313052230755</v>
       </c>
       <c r="D77">
-        <v>-0.06602072893136275</v>
+        <v>-0.01280655547660728</v>
       </c>
       <c r="E77">
-        <v>0.01127014401509354</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04864778558205737</v>
+      </c>
+      <c r="F77">
+        <v>0.01551954818210182</v>
+      </c>
+      <c r="G77">
+        <v>0.05047939459336456</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004141885247156438</v>
+        <v>0.04140908122029217</v>
       </c>
       <c r="C78">
-        <v>0.01763286784887232</v>
+        <v>-0.04956181917460198</v>
       </c>
       <c r="D78">
-        <v>-0.06270322587422154</v>
+        <v>-0.005506736832169338</v>
       </c>
       <c r="E78">
-        <v>0.007075936466618441</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02136009336487895</v>
+      </c>
+      <c r="F78">
+        <v>0.04268239299040597</v>
+      </c>
+      <c r="G78">
+        <v>0.03518032343461099</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01454639691174922</v>
+        <v>0.05936485847314067</v>
       </c>
       <c r="C80">
-        <v>0.1525370770057716</v>
+        <v>-0.06563412116150941</v>
       </c>
       <c r="D80">
-        <v>-0.2344465756373226</v>
+        <v>-0.01220871965368757</v>
       </c>
       <c r="E80">
-        <v>-0.8947174915598791</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.0408288983900934</v>
+      </c>
+      <c r="F80">
+        <v>0.04266697744152679</v>
+      </c>
+      <c r="G80">
+        <v>0.9108121521072637</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.001571430003887561</v>
+        <v>0.1453933722346603</v>
       </c>
       <c r="C81">
-        <v>0.146716108423472</v>
+        <v>-0.09420384194462096</v>
       </c>
       <c r="D81">
-        <v>-0.1431009555972095</v>
+        <v>0.01599071068694269</v>
       </c>
       <c r="E81">
-        <v>0.02123270439424667</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03957701382871186</v>
+      </c>
+      <c r="F81">
+        <v>-0.1342481659153304</v>
+      </c>
+      <c r="G81">
+        <v>0.01221955137548814</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05366592584438863</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03857718071264118</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.00282748934473156</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.02058023574585036</v>
+      </c>
+      <c r="F82">
+        <v>-0.008709369988212479</v>
+      </c>
+      <c r="G82">
+        <v>-0.005605972281157516</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006582085988911942</v>
+        <v>0.02757589874138355</v>
       </c>
       <c r="C83">
-        <v>0.03042562869911428</v>
+        <v>-0.02095842004972868</v>
       </c>
       <c r="D83">
-        <v>-0.02350681108477246</v>
+        <v>-0.005244730061110881</v>
       </c>
       <c r="E83">
-        <v>0.008973605520016859</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02529273395733394</v>
+      </c>
+      <c r="F83">
+        <v>0.01814485050327632</v>
+      </c>
+      <c r="G83">
+        <v>0.02278320389530082</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.009091835150128074</v>
+        <v>0.2337372497100109</v>
       </c>
       <c r="C85">
-        <v>0.1813687690516792</v>
+        <v>-0.1509288620827788</v>
       </c>
       <c r="D85">
-        <v>-0.2351717517712379</v>
+        <v>0.01976412721515011</v>
       </c>
       <c r="E85">
-        <v>0.05228867974893973</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1170874459189059</v>
+      </c>
+      <c r="F85">
+        <v>-0.1801600870404261</v>
+      </c>
+      <c r="G85">
+        <v>-0.06349747222698918</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006368825432289661</v>
+        <v>0.01267732482086096</v>
       </c>
       <c r="C86">
-        <v>0.02120971163432462</v>
+        <v>-0.01573244238783895</v>
       </c>
       <c r="D86">
-        <v>-0.009211536772753616</v>
+        <v>-0.009411896952443526</v>
       </c>
       <c r="E86">
-        <v>0.02083217048628806</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03572255591046573</v>
+      </c>
+      <c r="F86">
+        <v>0.03498932495088169</v>
+      </c>
+      <c r="G86">
+        <v>0.0521126649176448</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007397100002461719</v>
+        <v>0.01796439712737889</v>
       </c>
       <c r="C87">
-        <v>0.01366700840054527</v>
+        <v>-0.02770861367078226</v>
       </c>
       <c r="D87">
-        <v>-0.03757462952943219</v>
+        <v>-0.01153642724796431</v>
       </c>
       <c r="E87">
-        <v>0.008507495476151726</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07149080394020295</v>
+      </c>
+      <c r="F87">
+        <v>0.04563488212630071</v>
+      </c>
+      <c r="G87">
+        <v>0.04569453552190418</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02645019748167559</v>
+        <v>0.09232241797287594</v>
       </c>
       <c r="C88">
-        <v>0.04849735417325453</v>
+        <v>-0.05953404141809326</v>
       </c>
       <c r="D88">
-        <v>-0.02688663419051033</v>
+        <v>-0.02146034800042396</v>
       </c>
       <c r="E88">
-        <v>0.007551426936147377</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01239884012846344</v>
+      </c>
+      <c r="F88">
+        <v>-0.01310987169544669</v>
+      </c>
+      <c r="G88">
+        <v>0.02276542091654987</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05624752332943141</v>
+        <v>0.2227263710632853</v>
       </c>
       <c r="C89">
-        <v>0.3368977179009434</v>
+        <v>0.3699560181596931</v>
       </c>
       <c r="D89">
-        <v>0.2913101607245799</v>
+        <v>0.008969685265355855</v>
       </c>
       <c r="E89">
-        <v>-0.005259255966266556</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02386998220454536</v>
+      </c>
+      <c r="F89">
+        <v>-0.03122492398878122</v>
+      </c>
+      <c r="G89">
+        <v>0.03201792863439715</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04187760525201845</v>
+        <v>0.1914623586834258</v>
       </c>
       <c r="C90">
-        <v>0.2441535363670283</v>
+        <v>0.3350327072982017</v>
       </c>
       <c r="D90">
-        <v>0.2641457902611253</v>
+        <v>0.01203660836625624</v>
       </c>
       <c r="E90">
-        <v>-0.00201068057856262</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01016307732258828</v>
+      </c>
+      <c r="F90">
+        <v>-0.05260260978397015</v>
+      </c>
+      <c r="G90">
+        <v>-0.000854932130545807</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.001358870523926593</v>
+        <v>0.2052314274622322</v>
       </c>
       <c r="C91">
-        <v>0.1929577051004656</v>
+        <v>-0.1395309491924794</v>
       </c>
       <c r="D91">
-        <v>-0.2135931345350692</v>
+        <v>0.02489816480343601</v>
       </c>
       <c r="E91">
-        <v>0.03326877978127173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08579454050530591</v>
+      </c>
+      <c r="F91">
+        <v>-0.1797739551718702</v>
+      </c>
+      <c r="G91">
+        <v>-0.001833515268828451</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.008742872621456982</v>
+        <v>0.2019833354025593</v>
       </c>
       <c r="C92">
-        <v>0.3211826427893588</v>
+        <v>0.2610205457395103</v>
       </c>
       <c r="D92">
-        <v>0.1413519521124014</v>
+        <v>0.05001216966460828</v>
       </c>
       <c r="E92">
-        <v>0.001703125547646089</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.001659292501095978</v>
+      </c>
+      <c r="F92">
+        <v>-0.1182410935603699</v>
+      </c>
+      <c r="G92">
+        <v>0.06465688191009691</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.0392113020566363</v>
+        <v>0.2172618007572455</v>
       </c>
       <c r="C93">
-        <v>0.2825826317100914</v>
+        <v>0.3356274138606839</v>
       </c>
       <c r="D93">
-        <v>0.2689560922945719</v>
+        <v>0.01935767149329682</v>
       </c>
       <c r="E93">
-        <v>0.02055499169826293</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.005826696004848834</v>
+      </c>
+      <c r="F93">
+        <v>-0.03076122575567489</v>
+      </c>
+      <c r="G93">
+        <v>-0.001457945937856989</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02007265870940156</v>
+        <v>0.288210120003131</v>
       </c>
       <c r="C94">
-        <v>0.2386839478804066</v>
+        <v>-0.1681847487699854</v>
       </c>
       <c r="D94">
-        <v>-0.2091749164830274</v>
+        <v>0.01372094912214176</v>
       </c>
       <c r="E94">
-        <v>0.08154799633941764</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1083819604270264</v>
+      </c>
+      <c r="F94">
+        <v>-0.4259380913010465</v>
+      </c>
+      <c r="G94">
+        <v>-0.1378908760421828</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006322116623113667</v>
+        <v>0.08777220107352871</v>
       </c>
       <c r="C95">
-        <v>0.05035067012767095</v>
+        <v>-0.07605368679073869</v>
       </c>
       <c r="D95">
-        <v>-0.0726839351490598</v>
+        <v>0.007459619685199928</v>
       </c>
       <c r="E95">
-        <v>0.1206943921976941</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07617174177770375</v>
+      </c>
+      <c r="F95">
+        <v>0.1944780591382453</v>
+      </c>
+      <c r="G95">
+        <v>-0.06695542996011547</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.005156762293900144</v>
+        <v>0.2077688017036975</v>
       </c>
       <c r="C98">
-        <v>0.1689475845754454</v>
+        <v>-0.04187633035072018</v>
       </c>
       <c r="D98">
-        <v>-0.1001024970302231</v>
+        <v>0.01675599282816615</v>
       </c>
       <c r="E98">
-        <v>0.07094196345179601</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.05980573794504105</v>
+      </c>
+      <c r="F98">
+        <v>0.2558379604396784</v>
+      </c>
+      <c r="G98">
+        <v>-0.03249544723675502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007148667049000307</v>
+        <v>0.01474791910211148</v>
       </c>
       <c r="C101">
-        <v>0.01827951171041626</v>
+        <v>-0.02093265186905541</v>
       </c>
       <c r="D101">
-        <v>-0.01511988543760261</v>
+        <v>-0.006966218009624811</v>
       </c>
       <c r="E101">
-        <v>-0.005197941492433175</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.006561257391747195</v>
+      </c>
+      <c r="F101">
+        <v>-0.01376820882458968</v>
+      </c>
+      <c r="G101">
+        <v>0.03011044348957682</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01390336329850628</v>
+        <v>0.1223083645240978</v>
       </c>
       <c r="C102">
-        <v>0.1150177770084056</v>
+        <v>-0.08330694880563888</v>
       </c>
       <c r="D102">
-        <v>-0.1094356810917966</v>
+        <v>-0.0004773255022671434</v>
       </c>
       <c r="E102">
-        <v>0.02523225393645206</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04124276143905482</v>
+      </c>
+      <c r="F102">
+        <v>-0.05182336542718998</v>
+      </c>
+      <c r="G102">
+        <v>-0.009499070832346889</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001899043667919208</v>
+        <v>0.004516967676163552</v>
       </c>
       <c r="C103">
-        <v>0.01777105593233535</v>
+        <v>-0.004943040175118059</v>
       </c>
       <c r="D103">
-        <v>-0.02687211192960901</v>
+        <v>-0.0004786597226267381</v>
       </c>
       <c r="E103">
-        <v>-0.01118858075009618</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001450201106499542</v>
+      </c>
+      <c r="F103">
+        <v>-0.009122897776856863</v>
+      </c>
+      <c r="G103">
+        <v>0.01754599413866861</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9846723678815579</v>
+        <v>0.03587105298203992</v>
       </c>
       <c r="C104">
-        <v>-0.1085304533185282</v>
+        <v>0.04296724092290008</v>
       </c>
       <c r="D104">
-        <v>-0.006178021801237352</v>
+        <v>-0.9869082573601108</v>
       </c>
       <c r="E104">
-        <v>-0.02665712692541006</v>
+        <v>0.04242688719733369</v>
+      </c>
+      <c r="F104">
+        <v>-0.04078995307738267</v>
+      </c>
+      <c r="G104">
+        <v>-0.006736040851699727</v>
       </c>
     </row>
   </sheetData>
